--- a/0_data/covariate_list.xlsx
+++ b/0_data/covariate_list.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Projects/climate_downscaling/0_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6D0A8A-8433-3347-9105-FB1B4D0EDD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D606CBDB-F03D-CC4E-AD74-85F02251B643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="3080" windowWidth="27640" windowHeight="16940" xr2:uid="{8D1164B8-0351-214C-BF1B-1AB222D26545}"/>
+    <workbookView xWindow="8400" yWindow="3460" windowWidth="27640" windowHeight="16940" xr2:uid="{8D1164B8-0351-214C-BF1B-1AB222D26545}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
-  <si>
-    <t>Covariarte</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="100">
   <si>
     <t>Description</t>
   </si>
@@ -86,9 +83,6 @@
     <t>Shadow index (SI)</t>
   </si>
   <si>
-    <t>Sentinel-2</t>
-  </si>
-  <si>
     <t>Resolution</t>
   </si>
   <si>
@@ -116,12 +110,6 @@
     <t>Land cover classification</t>
   </si>
   <si>
-    <t>Forest type</t>
-  </si>
-  <si>
-    <t>Percent tree cover</t>
-  </si>
-  <si>
     <t>ee.ImageCollection("COPERNICUS/Landcover/100m/Proba-V-C3/Global")</t>
   </si>
   <si>
@@ -134,12 +122,6 @@
     <t xml:space="preserve">Copernicus land cover classification product. </t>
   </si>
   <si>
-    <t>ee.ImageCollection("COPERNICUS/S2_SR")</t>
-  </si>
-  <si>
-    <t>10-60</t>
-  </si>
-  <si>
     <t>(NIR - R) / (NIR + R), measure of greenness</t>
   </si>
   <si>
@@ -164,17 +146,203 @@
     <t>distinguish topographic features. Compares elevation of a cell of the mean elevation in the surrounding neighborhood..</t>
   </si>
   <si>
-    <t>10-61</t>
-  </si>
-  <si>
     <t xml:space="preserve">Index of potential heat load based on topographic variables. </t>
+  </si>
+  <si>
+    <t>Used_in_final_analysis</t>
+  </si>
+  <si>
+    <t>Used_in_initial_analysis</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Landsat</t>
+  </si>
+  <si>
+    <t>ee.ImageCollection('LANDSAT/LE07/C02/T1_L2')</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>cloud_fraction</t>
+  </si>
+  <si>
+    <t>cloud_probabilty</t>
+  </si>
+  <si>
+    <t>probability of cloud cover</t>
+  </si>
+  <si>
+    <t>ee.ImageCollection('NOAA/CDR/PATMOSX/V53')</t>
+  </si>
+  <si>
+    <t>Cloud fraction</t>
+  </si>
+  <si>
+    <t>NOAA</t>
+  </si>
+  <si>
+    <t>aet</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>pdsi</t>
+  </si>
+  <si>
+    <t>pet</t>
+  </si>
+  <si>
+    <t>pr</t>
+  </si>
+  <si>
+    <t>ro</t>
+  </si>
+  <si>
+    <t>soil</t>
+  </si>
+  <si>
+    <t>srad</t>
+  </si>
+  <si>
+    <t>swe</t>
+  </si>
+  <si>
+    <t>vap</t>
+  </si>
+  <si>
+    <t>vpd</t>
+  </si>
+  <si>
+    <t>vs</t>
+  </si>
+  <si>
+    <t>ee.ImageCollection('IDAHO_EPSCOR/TERRACLIMATE')</t>
+  </si>
+  <si>
+    <t>Actual evapotranspiration, derived using a one-dimensional soil water balance model</t>
+  </si>
+  <si>
+    <t>Climate water deficit, derived using a one-dimensional soil water balance model</t>
+  </si>
+  <si>
+    <t>Palmer Drought Severity Index</t>
+  </si>
+  <si>
+    <t>Reference evapotranspiration (ASCE Penman-Montieth)</t>
+  </si>
+  <si>
+    <t>Precipitation accumulation</t>
+  </si>
+  <si>
+    <t>Runoff, derived using a one-dimensional soil water balance model</t>
+  </si>
+  <si>
+    <t>Soil moisture, derived using a one-dimensional soil water balance model</t>
+  </si>
+  <si>
+    <t>Downward surface shortwave radiation</t>
+  </si>
+  <si>
+    <t>Snow water equivalent, derived using a one-dimensional soil water balance model</t>
+  </si>
+  <si>
+    <t>Vapor pressure</t>
+  </si>
+  <si>
+    <t>Vapor pressure deficit</t>
+  </si>
+  <si>
+    <t>Wind-speed at 10m</t>
+  </si>
+  <si>
+    <t>TerraClimate</t>
+  </si>
+  <si>
+    <t>tree-coverfraction</t>
+  </si>
+  <si>
+    <t>forest_type</t>
+  </si>
+  <si>
+    <t>snow</t>
+  </si>
+  <si>
+    <t>percent of snow cover</t>
+  </si>
+  <si>
+    <t>(green - shortwave infrared 1) / (green - shortwave infrared 1)</t>
+  </si>
+  <si>
+    <t>Normalized Difference Snow Index (NDSI)</t>
+  </si>
+  <si>
+    <t>northness</t>
+  </si>
+  <si>
+    <t>cosign of aspect in radians</t>
+  </si>
+  <si>
+    <t>hnd</t>
+  </si>
+  <si>
+    <t>Hydrologically adjusted elevations, also know as "hand" (height above the nearest drainage). The elevations are adjusted to satisfy the condition "downstream is not higher than its upstream" while minimizing the required modifications from the original DEM. The elevation above EGM96 geoid is represented in meters, and the vertical increment is set to 10cm. For detailed method, see [Yamazaki et al., 2012, WRR].</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>CHILI</t>
+  </si>
+  <si>
+    <t>ee.Image('CSP/ERGo/1_0/Global/ALOS_CHILI')</t>
+  </si>
+  <si>
+    <t>Global ALOS CHILI (Continuous Heat-Insolation Load Index)</t>
+  </si>
+  <si>
+    <t>Continuous Heat-Insolation Load Index</t>
+  </si>
+  <si>
+    <t>the HLI I calculated at 10 m resolution performed better</t>
+  </si>
+  <si>
+    <t>raw NDSI worked better</t>
+  </si>
+  <si>
+    <t>didn’t use. Highly correlated with higher resolution tree height</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>ee.Image('users/nlang/ETH_GlobalCanopyHeight_2020_10m_v1')</t>
+  </si>
+  <si>
+    <t>ee.Image('users/nlang/ETH_GlobalCanopyHeightSD_2020_10m_v1')</t>
+  </si>
+  <si>
+    <t>canopy height</t>
+  </si>
+  <si>
+    <t>canopy standard deviation</t>
+  </si>
+  <si>
+    <t>model trained with GEDI LiDAR to retrieve canopy height from sentinel-2 images</t>
+  </si>
+  <si>
+    <t>Global Canopy Height 2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -208,6 +376,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -230,12 +405,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -551,300 +727,788 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE2F56A-D279-5D41-BE5E-40EC22BB69A0}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E17"/>
+    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" customWidth="1"/>
-    <col min="2" max="2" width="92" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="173.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="20.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="70.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3">
+        <v>23.19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3">
+        <v>23.19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3">
+        <v>23.19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3">
+        <v>23.19</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3">
+        <v>23.19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3">
+        <v>23.19</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D2">
-        <v>23.19</v>
-      </c>
-      <c r="E2" s="3" t="s">
+    </row>
+    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>23.19</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D8" s="3">
+        <v>92.77</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>23.19</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="D9" s="3">
+        <v>92.77</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>23.19</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="3">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="3">
+        <v>30</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="3">
+        <v>30</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="3">
+        <v>30</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="3">
+        <v>30</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="3">
+        <v>100</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>23.19</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7">
-        <v>92.77</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="3">
+        <v>11132</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="3">
+        <v>11132</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="3">
+        <v>4638.3</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4638.3</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="3">
+        <v>4638.3</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4638.3</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="3">
+        <v>4638.3</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="3">
+        <v>4638.3</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="3">
+        <v>4638.3</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="3">
+        <v>4638.3</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="3">
+        <v>4638.3</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="3">
+        <v>4638.3</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="3">
+        <v>4638.3</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="3">
+        <v>4638.3</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="3">
+        <v>90</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="3">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="1">
-        <v>100</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="1">
-        <v>100</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="1">
-        <v>100</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>28</v>
+      <c r="G37" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="3">
+        <v>10</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/0_data/covariate_list.xlsx
+++ b/0_data/covariate_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Projects/climate_downscaling/0_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D606CBDB-F03D-CC4E-AD74-85F02251B643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AB2FA5-523F-064A-9FA5-4BCFC009397F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8400" yWindow="3460" windowWidth="27640" windowHeight="16940" xr2:uid="{8D1164B8-0351-214C-BF1B-1AB222D26545}"/>
   </bookViews>

--- a/0_data/covariate_list.xlsx
+++ b/0_data/covariate_list.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Projects/climate_downscaling/0_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30145401-6B0D-634A-9904-ACE094B730DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5A26AF-847C-9842-9D19-95DBDA951CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="3460" windowWidth="27640" windowHeight="16940" xr2:uid="{8D1164B8-0351-214C-BF1B-1AB222D26545}"/>
+    <workbookView xWindow="45720" yWindow="1280" windowWidth="27640" windowHeight="19380" activeTab="1" xr2:uid="{8D1164B8-0351-214C-BF1B-1AB222D26545}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="142">
   <si>
     <t>Description</t>
   </si>
@@ -336,6 +337,132 @@
   </si>
   <si>
     <t>TWI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @yamazaki2019merit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @natural2015canadian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @geologicalsurveyLandsat47Surface2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @buchhorn2020copernicus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @heidinger2014noaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @abatzoglou2018terraclimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @theobald2015ecologically</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @lang2022high</t>
+  </si>
+  <si>
+    <t>Normalized Difference Vegetation Index: (NIR - R) / (NIR + R)</t>
+  </si>
+  <si>
+    <t>NDVI</t>
+  </si>
+  <si>
+    <t>TPI</t>
+  </si>
+  <si>
+    <t>Heat Load Index</t>
+  </si>
+  <si>
+    <t>HLI</t>
+  </si>
+  <si>
+    <t>discrete_classification</t>
+  </si>
+  <si>
+    <t>Fractional cloud cover</t>
+  </si>
+  <si>
+    <t>Runof</t>
+  </si>
+  <si>
+    <t>Soil moisture</t>
+  </si>
+  <si>
+    <t>Snow water equivalent</t>
+  </si>
+  <si>
+    <t>canopy_standard_deviation</t>
+  </si>
+  <si>
+    <t>Topographic Position Index, TPI neigborhoods range from 50-1000 meters.</t>
+  </si>
+  <si>
+    <t>Actual evapotranspiration</t>
+  </si>
+  <si>
+    <t>Climate water deficit</t>
+  </si>
+  <si>
+    <t>Forest type for all pixels with tree cover &gt; 1 %</t>
+  </si>
+  <si>
+    <t>Percent of forest vegetation cover</t>
+  </si>
+  <si>
+    <t>NDSI</t>
+  </si>
+  <si>
+    <t>EVI</t>
+  </si>
+  <si>
+    <t>BSI</t>
+  </si>
+  <si>
+    <t>SAVI</t>
+  </si>
+  <si>
+    <t>NDMI</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>LAI</t>
+  </si>
+  <si>
+    <t>Topographic Wetness Index: ln(α/tanβ)) where α=cumulative upslope drainage area and β is slope [@sorensen2007effects]</t>
+  </si>
+  <si>
+    <t>Enhanced Vegetation Index: G * ((NIR - R) / (NIR + C1 * R – C2 * B + L))</t>
+  </si>
+  <si>
+    <t>Soil Adjusted Vegetation Index: ((NIR - R) / (NIR + R + L)) * (1 + L)</t>
+  </si>
+  <si>
+    <t>Normalized Difference Moisture Index: (NIR - SWIR) / (NIR + SWIR)</t>
+  </si>
+  <si>
+    <t>Shadow index:  (1 - B) * (1 - G) * (1 - R)</t>
+  </si>
+  <si>
+    <t>Leaf Area Index: 3.618 *(2.5 * ((NIR - R) / (NIR + 6 * R - 7.5 * B + 1)))-0.118</t>
+  </si>
+  <si>
+    <t>Normalized Difference Snow Index: (G - SWIR) / (G- SWIR)</t>
+  </si>
+  <si>
+    <t>Bare Soil Index: ((R+SWIR) – (NIR+B)) / ((R+SWIR) + (NIR+B))</t>
+  </si>
+  <si>
+    <t>model trained with GEDI LiDAR to retrieve canopy height from Sentinel-2 images</t>
+  </si>
+  <si>
+    <t>model trained with GEDI LiDAR to retrieve standard deviation of canopy height from Sentinel-2 images</t>
+  </si>
+  <si>
+    <t>Resolution (m)</t>
   </si>
 </sst>
 </file>
@@ -728,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE2F56A-D279-5D41-BE5E-40EC22BB69A0}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1512,4 +1639,556 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE7250B-D727-374B-92E1-AA1FE41CB08C}">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="2" max="2" width="173.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="70.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>23.19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>23.19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>23.19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5">
+        <v>23.19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6">
+        <v>23.19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7">
+        <v>23.19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8">
+        <v>92.77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21">
+        <v>11132</v>
+      </c>
+      <c r="D21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22">
+        <v>11132</v>
+      </c>
+      <c r="D22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23">
+        <v>4638.3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24">
+        <v>4638.3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25">
+        <v>4638.3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26">
+        <v>4638.3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27">
+        <v>4638.3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28">
+        <v>4638.3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29">
+        <v>4638.3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30">
+        <v>4638.3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31">
+        <v>4638.3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32">
+        <v>4638.3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33">
+        <v>4638.3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34">
+        <v>4638.3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35">
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>